--- a/biology/Zoologie/Diplotemnus/Diplotemnus.xlsx
+++ b/biology/Zoologie/Diplotemnus/Diplotemnus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Diplotemnus est un genre de pseudoscorpions de la famille des Atemnidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Asie, en Afrique, en Europe et en Amérique du Nord[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Asie, en Afrique, en Europe et en Amérique du Nord.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Pseudoscorpions of the World (version 3.0)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Pseudoscorpions of the World (version 3.0) :
 Diplotemnus egregius Beier, 1959
 Diplotemnus garypoides (Ellingsen, 1906)
 Diplotemnus insularis Chamberlin, 1933
@@ -555,7 +571,7 @@
 Diplotemnus rudebecki Beier, 1955
 et placée depuis :
 Diplotemnus balcanicus (Redikorzev, 1928)
-Diplotemnus insolitus[2] et Diplotemnus vachoni[3] ont été placées en synonymie avec Diplotemnus balcanicus par Novák et Harvey en 2015[4].
+Diplotemnus insolitus et Diplotemnus vachoni ont été placées en synonymie avec Diplotemnus balcanicus par Novák et Harvey en 2015.
 </t>
         </is>
       </c>
@@ -584,7 +600,9 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre a été décrit par Chamberlin en 1933 dans les Atemnidae.
 </t>
@@ -615,7 +633,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Chamberlin, 1933 : « Some false scorpions of the atemnid subfamily Miratemninae (Arachnida - Chelonethida). » Annals of the Entomological Society of America, vol. 26, p. 262-268.</t>
         </is>
